--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.871715666666667</v>
+        <v>2.763564666666667</v>
       </c>
       <c r="H2">
-        <v>23.615147</v>
+        <v>8.290694</v>
       </c>
       <c r="I2">
-        <v>0.02771913691218268</v>
+        <v>0.009909756414635561</v>
       </c>
       <c r="J2">
-        <v>0.02771913691218268</v>
+        <v>0.009909756414635559</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N2">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O2">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P2">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q2">
-        <v>268.1952276871259</v>
+        <v>30.80502975037468</v>
       </c>
       <c r="R2">
-        <v>2413.757049184132</v>
+        <v>277.245267753372</v>
       </c>
       <c r="S2">
-        <v>0.01433485323773431</v>
+        <v>0.002571389625222483</v>
       </c>
       <c r="T2">
-        <v>0.01433485323773431</v>
+        <v>0.002571389625222483</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.871715666666667</v>
+        <v>2.763564666666667</v>
       </c>
       <c r="H3">
-        <v>23.615147</v>
+        <v>8.290694</v>
       </c>
       <c r="I3">
-        <v>0.02771913691218268</v>
+        <v>0.009909756414635561</v>
       </c>
       <c r="J3">
-        <v>0.02771913691218268</v>
+        <v>0.009909756414635559</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O3">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P3">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q3">
-        <v>217.932360474353</v>
+        <v>76.510661288306</v>
       </c>
       <c r="R3">
-        <v>1961.391244269177</v>
+        <v>688.595951594754</v>
       </c>
       <c r="S3">
-        <v>0.01164833703453263</v>
+        <v>0.006386577849458778</v>
       </c>
       <c r="T3">
-        <v>0.01164833703453263</v>
+        <v>0.006386577849458777</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.871715666666667</v>
+        <v>2.763564666666667</v>
       </c>
       <c r="H4">
-        <v>23.615147</v>
+        <v>8.290694</v>
       </c>
       <c r="I4">
-        <v>0.02771913691218268</v>
+        <v>0.009909756414635561</v>
       </c>
       <c r="J4">
-        <v>0.02771913691218268</v>
+        <v>0.009909756414635559</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>12.377873</v>
       </c>
       <c r="O4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q4">
-        <v>32.47836560470345</v>
+        <v>11.40235082376245</v>
       </c>
       <c r="R4">
-        <v>292.305290442331</v>
+        <v>102.621157413862</v>
       </c>
       <c r="S4">
-        <v>0.001735946639915736</v>
+        <v>0.0009517889399543002</v>
       </c>
       <c r="T4">
-        <v>0.001735946639915736</v>
+        <v>0.0009517889399543</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>266.1315866666667</v>
+        <v>266.1315866666666</v>
       </c>
       <c r="H5">
-        <v>798.3947600000001</v>
+        <v>798.3947599999999</v>
       </c>
       <c r="I5">
-        <v>0.9371448614065047</v>
+        <v>0.9543106517164206</v>
       </c>
       <c r="J5">
-        <v>0.9371448614065045</v>
+        <v>0.9543106517164204</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N5">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O5">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P5">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q5">
-        <v>9067.301780607515</v>
+        <v>2966.527812308987</v>
       </c>
       <c r="R5">
-        <v>81605.71602546764</v>
+        <v>26698.75031078088</v>
       </c>
       <c r="S5">
-        <v>0.4846411377568857</v>
+        <v>0.247625108669551</v>
       </c>
       <c r="T5">
-        <v>0.4846411377568858</v>
+        <v>0.247625108669551</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>266.1315866666667</v>
+        <v>266.1315866666666</v>
       </c>
       <c r="H6">
-        <v>798.3947600000001</v>
+        <v>798.3947599999999</v>
       </c>
       <c r="I6">
-        <v>0.9371448614065047</v>
+        <v>0.9543106517164206</v>
       </c>
       <c r="J6">
-        <v>0.9371448614065045</v>
+        <v>0.9543106517164204</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O6">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P6">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q6">
-        <v>7367.98524426524</v>
+        <v>7367.985244265238</v>
       </c>
       <c r="R6">
-        <v>66311.86719838716</v>
+        <v>66311.86719838715</v>
       </c>
       <c r="S6">
-        <v>0.3938138200488354</v>
+        <v>0.615028161615898</v>
       </c>
       <c r="T6">
-        <v>0.3938138200488354</v>
+        <v>0.6150281616158979</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>266.1315866666667</v>
+        <v>266.1315866666666</v>
       </c>
       <c r="H7">
-        <v>798.3947600000001</v>
+        <v>798.3947599999999</v>
       </c>
       <c r="I7">
-        <v>0.9371448614065047</v>
+        <v>0.9543106517164206</v>
       </c>
       <c r="J7">
-        <v>0.9371448614065045</v>
+        <v>0.9543106517164204</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>12.377873</v>
       </c>
       <c r="O7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q7">
         <v>1098.047660349498</v>
       </c>
       <c r="R7">
-        <v>9882.428943145482</v>
+        <v>9882.42894314548</v>
       </c>
       <c r="S7">
-        <v>0.05868990360078347</v>
+        <v>0.09165738143097162</v>
       </c>
       <c r="T7">
-        <v>0.05868990360078346</v>
+        <v>0.0916573814309716</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>29.933899</v>
       </c>
       <c r="I8">
-        <v>0.03513600168131277</v>
+        <v>0.03577959186894402</v>
       </c>
       <c r="J8">
-        <v>0.03513600168131276</v>
+        <v>0.03577959186894401</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N8">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O8">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P8">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q8">
-        <v>339.95675986554</v>
+        <v>111.2228541108513</v>
       </c>
       <c r="R8">
-        <v>3059.61083878986</v>
+        <v>1001.005686997662</v>
       </c>
       <c r="S8">
-        <v>0.01817045851961717</v>
+        <v>0.009284110272440121</v>
       </c>
       <c r="T8">
-        <v>0.01817045851961717</v>
+        <v>0.009284110272440119</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>29.933899</v>
       </c>
       <c r="I9">
-        <v>0.03513600168131277</v>
+        <v>0.03577959186894402</v>
       </c>
       <c r="J9">
-        <v>0.03513600168131276</v>
+        <v>0.03577959186894401</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O9">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P9">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q9">
         <v>276.244956987601</v>
@@ -1004,10 +1004,10 @@
         <v>2486.204612888409</v>
       </c>
       <c r="S9">
-        <v>0.01476510581575712</v>
+        <v>0.023059007641741</v>
       </c>
       <c r="T9">
-        <v>0.01476510581575712</v>
+        <v>0.02305900764174099</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>29.933899</v>
       </c>
       <c r="I10">
-        <v>0.03513600168131277</v>
+        <v>0.03577959186894402</v>
       </c>
       <c r="J10">
-        <v>0.03513600168131276</v>
+        <v>0.03577959186894401</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>12.377873</v>
       </c>
       <c r="O10">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P10">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q10">
         <v>41.16866669075856</v>
@@ -1066,10 +1066,10 @@
         <v>370.518000216827</v>
       </c>
       <c r="S10">
-        <v>0.002200437345938478</v>
+        <v>0.003436473954762905</v>
       </c>
       <c r="T10">
-        <v>0.002200437345938478</v>
+        <v>0.003436473954762904</v>
       </c>
     </row>
   </sheetData>
